--- a/pyecom_eduardo/data/EC_V4_new_UC2.xlsx
+++ b/pyecom_eduardo/data/EC_V4_new_UC2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\laris\EV4EU2\task2_5\energy_communities_management\pyecom_tomas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa.sharepoint.com/sites/HEU-EV4EU-Project/Documentos Partilhados/WP2-V2X Management Strategies (DTU)/T2.5/Methods and use case/UCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD7E7FA-B658-4FD8-AB01-C54D55583D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{972FACF0-0087-431B-84D8-9BB45EFA7203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B1B7D1A-499A-4226-AD73-88FF76709431}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Information" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="152">
   <si>
     <t>General Information</t>
   </si>
@@ -465,6 +465,21 @@
     <t>Minimun Technical SOC (%)</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Nissan Leaf</t>
+  </si>
+  <si>
+    <t>Mazda MX30</t>
+  </si>
+  <si>
+    <t>Opel Mokka Electric</t>
+  </si>
+  <si>
+    <t>BMW i3</t>
+  </si>
+  <si>
     <t>Charging station ID</t>
   </si>
   <si>
@@ -497,15 +512,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;???????\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;???????\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +698,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1699,9 +1720,9 @@
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1753,13 +1774,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1879,12 +1900,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="32" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="32" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1937,6 +1958,9 @@
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2024,40 +2048,43 @@
     </xf>
   </cellXfs>
   <cellStyles count="149">
-    <cellStyle name="20% - Cor1" xfId="125" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="129" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="133" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="137" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="141" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="145" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="126" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="130" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="134" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="138" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="142" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="146" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="127" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="131" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="135" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="139" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="143" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="147" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="108" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="109" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="110" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="111" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="117" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="118" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="124" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="128" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="132" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="136" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="140" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="144" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="112" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="115" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="113" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="114" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="125" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="129" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="133" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="137" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="141" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="145" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="126" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="130" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="134" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="138" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="142" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="146" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="127" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="131" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="135" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="139" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="143" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="147" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="124" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="128" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="132" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="136" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="140" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="144" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="113" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="117" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="119" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="148" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="122" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="112" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="108" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="109" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="110" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="111" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="115" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="118" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="114" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Normal 2 10" xfId="21" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
@@ -2161,18 +2188,15 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="Normal 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Nota" xfId="121" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="121" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="116" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="Percent 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="Percent 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Percent 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Saída" xfId="116" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="120" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="122" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="107" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="107" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="123" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="119" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="148" builtinId="3"/>
+    <cellStyle name="Warning Text" xfId="120" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2481,41 +2505,41 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="2" max="3" width="11.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.08984375" style="1"/>
     <col min="8" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.109375" style="1"/>
+    <col min="16" max="23" width="9.08984375" style="1"/>
     <col min="24" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="1"/>
+    <col min="26" max="27" width="9.08984375" style="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="1"/>
+    <col min="30" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="K2" s="119" t="s">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="K2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3" s="70" t="s">
         <v>2</v>
@@ -2526,13 +2550,13 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4" s="70" t="s">
         <v>4</v>
@@ -2543,13 +2567,13 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="118" t="s">
+      <c r="L4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5"/>
       <c r="C5" s="70" t="s">
@@ -2561,7 +2585,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6"/>
       <c r="C6" s="70" t="s">
@@ -2573,7 +2597,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2589,7 +2613,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2605,7 +2629,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2618,7 +2642,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2638,7 +2662,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2658,7 +2682,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -2667,7 +2691,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -2676,7 +2700,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -2685,15 +2709,15 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Q19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
@@ -2776,7 +2800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2857,7 +2881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2896,14 +2920,14 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="76"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="120">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="121">
         <v>1</v>
       </c>
-      <c r="B24" s="123">
+      <c r="B24" s="124">
         <v>1</v>
       </c>
-      <c r="C24" s="123">
+      <c r="C24" s="124">
         <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2985,10 +3009,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="122"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="21" t="s">
         <v>16</v>
       </c>
@@ -3068,10 +3092,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="122"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="21" t="s">
         <v>17</v>
       </c>
@@ -3151,10 +3175,10 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="122"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="21" t="s">
         <v>18</v>
       </c>
@@ -3234,10 +3258,10 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="122"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="21" t="s">
         <v>19</v>
       </c>
@@ -3317,10 +3341,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="121"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="122"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="21" t="s">
         <v>20</v>
       </c>
@@ -3400,10 +3424,10 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="122"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
+    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="123"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="22" t="s">
         <v>21</v>
       </c>
@@ -3506,35 +3530,35 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="14.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.90625" style="12"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.88671875" style="8"/>
-    <col min="15" max="15" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="14" width="8.90625" style="8"/>
+    <col min="15" max="15" width="10.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="E1" s="127" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="E1" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="H1" s="119" t="s">
+      <c r="F1" s="128"/>
+      <c r="H1" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="119"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="120"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>25</v>
       </c>
@@ -3558,7 +3582,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="43">
         <v>1</v>
       </c>
@@ -3581,7 +3605,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E4" s="45" t="s">
         <v>32</v>
       </c>
@@ -3596,7 +3620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E5" s="26">
         <f>-3.14159</f>
         <v>-3.1415899999999999</v>
@@ -3613,34 +3637,34 @@
         <v>52.486388108147793</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="127" t="s">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
       <c r="K21" s="60" t="s">
         <v>37</v>
       </c>
@@ -3651,7 +3675,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -3680,10 +3704,10 @@
         <v>46</v>
       </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="128" t="s">
+      <c r="L22" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="129"/>
+      <c r="M22" s="130"/>
       <c r="N22" s="32" t="s">
         <v>48</v>
       </c>
@@ -3691,7 +3715,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
         <v>1</v>
       </c>
@@ -3737,7 +3761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
         <v>2</v>
       </c>
@@ -3789,7 +3813,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -3841,7 +3865,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="26">
         <v>4</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>5</v>
       </c>
@@ -3899,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="26">
         <v>6</v>
       </c>
@@ -3928,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="26">
         <v>7</v>
       </c>
@@ -3957,7 +3981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="26">
         <v>8</v>
       </c>
@@ -3986,7 +4010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
         <v>9</v>
       </c>
@@ -4015,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="26">
         <v>10</v>
       </c>
@@ -4044,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26">
         <v>11</v>
       </c>
@@ -4073,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26">
         <v>12</v>
       </c>
@@ -4102,7 +4126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26">
         <v>13</v>
       </c>
@@ -4131,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
         <v>14</v>
       </c>
@@ -4160,7 +4184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26">
         <v>15</v>
       </c>
@@ -4189,7 +4213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26">
         <v>16</v>
       </c>
@@ -4218,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26">
         <v>17</v>
       </c>
@@ -4247,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26">
         <v>18</v>
       </c>
@@ -4276,7 +4300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26">
         <v>19</v>
       </c>
@@ -4305,7 +4329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26">
         <v>20</v>
       </c>
@@ -4334,7 +4358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26">
         <v>21</v>
       </c>
@@ -4363,7 +4387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26">
         <v>22</v>
       </c>
@@ -4392,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26">
         <v>23</v>
       </c>
@@ -4421,7 +4445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26">
         <v>24</v>
       </c>
@@ -4450,7 +4474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26">
         <v>25</v>
       </c>
@@ -4479,7 +4503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26">
         <v>26</v>
       </c>
@@ -4508,7 +4532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26">
         <v>27</v>
       </c>
@@ -4537,7 +4561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26">
         <v>28</v>
       </c>
@@ -4566,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26">
         <v>29</v>
       </c>
@@ -4595,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26">
         <v>30</v>
       </c>
@@ -4624,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26">
         <v>31</v>
       </c>
@@ -4653,7 +4677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26">
         <v>32</v>
       </c>
@@ -4682,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26">
         <v>33</v>
       </c>
@@ -4711,7 +4735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26">
         <v>34</v>
       </c>
@@ -4740,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26">
         <v>35</v>
       </c>
@@ -4769,7 +4793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26">
         <v>36</v>
       </c>
@@ -4816,28 +4840,28 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="6" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.90625" style="8"/>
+    <col min="2" max="2" width="14.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="8"/>
+    <col min="6" max="6" width="20.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
@@ -4914,12 +4938,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="133"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="53" t="s">
         <v>10</v>
       </c>
@@ -4996,7 +5020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
@@ -5040,8 +5064,8 @@
       <c r="AC3" s="98"/>
       <c r="AD3" s="99"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="136">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="137">
         <v>1</v>
       </c>
       <c r="B4" s="101">
@@ -5132,8 +5156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="138"/>
       <c r="B5" s="106">
         <v>2</v>
       </c>
@@ -5222,8 +5246,8 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="137"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="138"/>
       <c r="B6" s="106">
         <v>3</v>
       </c>
@@ -5312,8 +5336,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="137"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="138"/>
       <c r="B7" s="106">
         <v>4</v>
       </c>
@@ -5398,8 +5422,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="138"/>
       <c r="B8" s="106">
         <v>5</v>
       </c>
@@ -5484,8 +5508,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="137"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="138"/>
       <c r="B9" s="106">
         <v>6</v>
       </c>
@@ -5520,8 +5544,8 @@
       <c r="AC9" s="104"/>
       <c r="AD9" s="105"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="137"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="138"/>
       <c r="B10" s="106">
         <v>7</v>
       </c>
@@ -5556,8 +5580,8 @@
       <c r="AC10" s="104"/>
       <c r="AD10" s="105"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="138"/>
       <c r="B11" s="106">
         <v>8</v>
       </c>
@@ -5592,8 +5616,8 @@
       <c r="AC11" s="104"/>
       <c r="AD11" s="105"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="137"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="138"/>
       <c r="B12" s="106">
         <v>9</v>
       </c>
@@ -5628,8 +5652,8 @@
       <c r="AC12" s="104"/>
       <c r="AD12" s="105"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="138"/>
       <c r="B13" s="106">
         <v>10</v>
       </c>
@@ -5664,8 +5688,8 @@
       <c r="AC13" s="104"/>
       <c r="AD13" s="105"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="137"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="138"/>
       <c r="B14" s="106">
         <v>11</v>
       </c>
@@ -5700,8 +5724,8 @@
       <c r="AC14" s="104"/>
       <c r="AD14" s="105"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="138"/>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="139"/>
       <c r="B15" s="110">
         <v>12</v>
       </c>
@@ -5736,8 +5760,8 @@
       <c r="AC15" s="114"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="136">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="137">
         <v>2</v>
       </c>
       <c r="B16" s="101">
@@ -5828,8 +5852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="137"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="138"/>
       <c r="B17" s="106">
         <v>2</v>
       </c>
@@ -5918,8 +5942,8 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="137"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="138"/>
       <c r="B18" s="106">
         <v>3</v>
       </c>
@@ -6008,8 +6032,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="137"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="138"/>
       <c r="B19" s="106">
         <v>4</v>
       </c>
@@ -6094,8 +6118,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="137"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="138"/>
       <c r="B20" s="106">
         <v>5</v>
       </c>
@@ -6180,8 +6204,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="137"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="138"/>
       <c r="B21" s="106">
         <v>6</v>
       </c>
@@ -6216,8 +6240,8 @@
       <c r="AC21" s="104"/>
       <c r="AD21" s="105"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="137"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="138"/>
       <c r="B22" s="106">
         <v>7</v>
       </c>
@@ -6252,8 +6276,8 @@
       <c r="AC22" s="104"/>
       <c r="AD22" s="105"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="137"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="138"/>
       <c r="B23" s="106">
         <v>8</v>
       </c>
@@ -6288,8 +6312,8 @@
       <c r="AC23" s="104"/>
       <c r="AD23" s="105"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="137"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="138"/>
       <c r="B24" s="106">
         <v>9</v>
       </c>
@@ -6324,8 +6348,8 @@
       <c r="AC24" s="104"/>
       <c r="AD24" s="105"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="137"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="138"/>
       <c r="B25" s="106">
         <v>10</v>
       </c>
@@ -6360,8 +6384,8 @@
       <c r="AC25" s="104"/>
       <c r="AD25" s="105"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="137"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="138"/>
       <c r="B26" s="106">
         <v>11</v>
       </c>
@@ -6396,8 +6420,8 @@
       <c r="AC26" s="104"/>
       <c r="AD26" s="105"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="138"/>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="139"/>
       <c r="B27" s="110">
         <v>12</v>
       </c>
@@ -6432,7 +6456,7 @@
       <c r="AC27" s="114"/>
       <c r="AD27" s="115"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -6464,7 +6488,7 @@
       <c r="AC28" s="116"/>
       <c r="AD28" s="116"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
@@ -6496,7 +6520,7 @@
       <c r="AC29" s="116"/>
       <c r="AD29" s="116"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
@@ -6528,7 +6552,7 @@
       <c r="AC30" s="116"/>
       <c r="AD30" s="116"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
@@ -6560,7 +6584,7 @@
       <c r="AC31" s="116"/>
       <c r="AD31" s="116"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
       <c r="C32" s="116"/>
@@ -6592,7 +6616,7 @@
       <c r="AC32" s="116"/>
       <c r="AD32" s="116"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
       <c r="C33" s="116"/>
@@ -6624,7 +6648,7 @@
       <c r="AC33" s="116"/>
       <c r="AD33" s="116"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
       <c r="C34" s="116"/>
@@ -6656,7 +6680,7 @@
       <c r="AC34" s="116"/>
       <c r="AD34" s="116"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
       <c r="C35" s="116"/>
@@ -6688,7 +6712,7 @@
       <c r="AC35" s="116"/>
       <c r="AD35" s="116"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
       <c r="C36" s="116"/>
@@ -6720,7 +6744,7 @@
       <c r="AC36" s="116"/>
       <c r="AD36" s="116"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
       <c r="C37" s="116"/>
@@ -6752,7 +6776,7 @@
       <c r="AC37" s="116"/>
       <c r="AD37" s="116"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
       <c r="C38" s="116"/>
@@ -6784,7 +6808,7 @@
       <c r="AC38" s="116"/>
       <c r="AD38" s="116"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
       <c r="C39" s="116"/>
@@ -6816,7 +6840,7 @@
       <c r="AC39" s="116"/>
       <c r="AD39" s="116"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
       <c r="C40" s="116"/>
@@ -6848,7 +6872,7 @@
       <c r="AC40" s="116"/>
       <c r="AD40" s="116"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
       <c r="C41" s="116"/>
@@ -6880,7 +6904,7 @@
       <c r="AC41" s="116"/>
       <c r="AD41" s="116"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="116"/>
       <c r="B42" s="116"/>
       <c r="C42" s="116"/>
@@ -6912,7 +6936,7 @@
       <c r="AC42" s="116"/>
       <c r="AD42" s="116"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="116"/>
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
@@ -6944,7 +6968,7 @@
       <c r="AC43" s="116"/>
       <c r="AD43" s="116"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="116"/>
       <c r="B44" s="116"/>
       <c r="C44" s="116"/>
@@ -6976,7 +7000,7 @@
       <c r="AC44" s="116"/>
       <c r="AD44" s="116"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="116"/>
       <c r="B45" s="116"/>
       <c r="C45" s="116"/>
@@ -7008,7 +7032,7 @@
       <c r="AC45" s="116"/>
       <c r="AD45" s="116"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="116"/>
       <c r="B46" s="116"/>
       <c r="C46" s="116"/>
@@ -7040,7 +7064,7 @@
       <c r="AC46" s="116"/>
       <c r="AD46" s="116"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="116"/>
       <c r="B47" s="116"/>
       <c r="C47" s="116"/>
@@ -7072,7 +7096,7 @@
       <c r="AC47" s="116"/>
       <c r="AD47" s="116"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="116"/>
       <c r="B48" s="116"/>
       <c r="C48" s="116"/>
@@ -7104,7 +7128,7 @@
       <c r="AC48" s="116"/>
       <c r="AD48" s="116"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="116"/>
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
@@ -7136,7 +7160,7 @@
       <c r="AC49" s="116"/>
       <c r="AD49" s="116"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="116"/>
       <c r="B50" s="116"/>
       <c r="C50" s="116"/>
@@ -7168,7 +7192,7 @@
       <c r="AC50" s="116"/>
       <c r="AD50" s="116"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="116"/>
       <c r="B51" s="116"/>
       <c r="C51" s="116"/>
@@ -7200,7 +7224,7 @@
       <c r="AC51" s="116"/>
       <c r="AD51" s="116"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="116"/>
       <c r="B52" s="116"/>
       <c r="C52" s="116"/>
@@ -7232,7 +7256,7 @@
       <c r="AC52" s="116"/>
       <c r="AD52" s="116"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="116"/>
       <c r="B53" s="116"/>
       <c r="C53" s="116"/>
@@ -7264,7 +7288,7 @@
       <c r="AC53" s="116"/>
       <c r="AD53" s="116"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="116"/>
       <c r="B54" s="116"/>
       <c r="C54" s="116"/>
@@ -7296,7 +7320,7 @@
       <c r="AC54" s="116"/>
       <c r="AD54" s="116"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="116"/>
       <c r="B55" s="116"/>
       <c r="C55" s="116"/>
@@ -7328,7 +7352,7 @@
       <c r="AC55" s="116"/>
       <c r="AD55" s="116"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="116"/>
       <c r="B56" s="116"/>
       <c r="C56" s="116"/>
@@ -7360,7 +7384,7 @@
       <c r="AC56" s="116"/>
       <c r="AD56" s="116"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="116"/>
       <c r="B57" s="116"/>
       <c r="C57" s="116"/>
@@ -7392,7 +7416,7 @@
       <c r="AC57" s="116"/>
       <c r="AD57" s="116"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="116"/>
       <c r="B58" s="116"/>
       <c r="C58" s="116"/>
@@ -7424,7 +7448,7 @@
       <c r="AC58" s="116"/>
       <c r="AD58" s="116"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="116"/>
       <c r="B59" s="116"/>
       <c r="C59" s="116"/>
@@ -7456,7 +7480,7 @@
       <c r="AC59" s="116"/>
       <c r="AD59" s="116"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="116"/>
       <c r="B60" s="116"/>
       <c r="C60" s="116"/>
@@ -7488,7 +7512,7 @@
       <c r="AC60" s="116"/>
       <c r="AD60" s="116"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="116"/>
       <c r="B61" s="116"/>
       <c r="C61" s="116"/>
@@ -7520,7 +7544,7 @@
       <c r="AC61" s="116"/>
       <c r="AD61" s="116"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="116"/>
       <c r="B62" s="116"/>
       <c r="C62" s="116"/>
@@ -7552,7 +7576,7 @@
       <c r="AC62" s="116"/>
       <c r="AD62" s="116"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="116"/>
       <c r="B63" s="116"/>
       <c r="C63" s="116"/>
@@ -7584,7 +7608,7 @@
       <c r="AC63" s="116"/>
       <c r="AD63" s="116"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="116"/>
       <c r="B64" s="116"/>
       <c r="C64" s="116"/>
@@ -7630,31 +7654,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="30" width="12.109375" style="8" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="30" width="12.08984375" style="8" customWidth="1"/>
+    <col min="31" max="16384" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="62" t="s">
         <v>9</v>
       </c>
@@ -7731,12 +7755,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
@@ -7813,7 +7837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -7857,8 +7881,8 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="139">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="140">
         <v>1</v>
       </c>
       <c r="B4" s="87">
@@ -7949,8 +7973,8 @@
         <v>5.6577999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B9" si="0">B4+1</f>
         <v>2</v>
@@ -8065,8 +8089,8 @@
         <v>2.2631200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8181,8 +8205,8 @@
         <v>0.56578000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8297,8 +8321,8 @@
         <v>0.56578000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8389,8 +8413,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8481,8 +8505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="141"/>
       <c r="B10" s="13">
         <v>7</v>
       </c>
@@ -8572,8 +8596,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="141"/>
       <c r="B11" s="13">
         <v>8</v>
       </c>
@@ -8659,8 +8683,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="141"/>
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -8746,8 +8770,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -8833,8 +8857,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -8867,8 +8891,8 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
       </c>
@@ -8901,8 +8925,8 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="139">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="140">
         <v>2</v>
       </c>
       <c r="B16" s="87">
@@ -8993,8 +9017,8 @@
         <v>0.91646240000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B21" si="5">B16+1</f>
         <v>2</v>
@@ -9109,8 +9133,8 @@
         <v>0.36658496000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -9225,8 +9249,8 @@
         <v>9.1646240000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -9341,8 +9365,8 @@
         <v>9.1646240000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -9433,8 +9457,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -9525,8 +9549,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="141"/>
       <c r="B22" s="13">
         <v>7</v>
       </c>
@@ -9616,8 +9640,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
       <c r="B23" s="13">
         <v>8</v>
       </c>
@@ -9703,8 +9727,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="141"/>
       <c r="B24" s="13">
         <v>9</v>
       </c>
@@ -9790,8 +9814,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
       </c>
@@ -9877,8 +9901,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
       </c>
@@ -9911,8 +9935,8 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="141"/>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
       </c>
@@ -9945,8 +9969,8 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="139">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="140">
         <v>3</v>
       </c>
       <c r="B28" s="87">
@@ -10037,8 +10061,8 @@
         <v>1.2219498</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B33" si="32">B28+1</f>
         <v>2</v>
@@ -10153,8 +10177,8 @@
         <v>0.48877992000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="32"/>
         <v>3</v>
@@ -10269,8 +10293,8 @@
         <v>0.12219498000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="32"/>
         <v>4</v>
@@ -10385,8 +10409,8 @@
         <v>0.12219498000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="32"/>
         <v>5</v>
@@ -10477,8 +10501,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="32"/>
         <v>6</v>
@@ -10569,8 +10593,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="141"/>
       <c r="B34" s="13">
         <v>7</v>
       </c>
@@ -10660,8 +10684,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="141"/>
       <c r="B35" s="13">
         <v>8</v>
       </c>
@@ -10747,8 +10771,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="141"/>
       <c r="B36" s="13">
         <v>9</v>
       </c>
@@ -10834,8 +10858,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
       </c>
@@ -10921,8 +10945,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
       </c>
@@ -10955,8 +10979,8 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="141"/>
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
       </c>
@@ -10989,8 +11013,8 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="139">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="140">
         <v>4</v>
       </c>
       <c r="B40" s="87">
@@ -11081,8 +11105,8 @@
         <v>0.36871999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B45" si="59">B40+1</f>
         <v>2</v>
@@ -11197,8 +11221,8 @@
         <v>0.14748800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="59"/>
         <v>3</v>
@@ -11313,8 +11337,8 @@
         <v>3.6872000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="59"/>
         <v>4</v>
@@ -11429,8 +11453,8 @@
         <v>3.6872000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="59"/>
         <v>5</v>
@@ -11521,8 +11545,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="59"/>
         <v>6</v>
@@ -11613,8 +11637,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46" s="141"/>
       <c r="B46" s="13">
         <v>7</v>
       </c>
@@ -11704,8 +11728,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" s="141"/>
       <c r="B47" s="13">
         <v>8</v>
       </c>
@@ -11791,8 +11815,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="140"/>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A48" s="141"/>
       <c r="B48" s="13">
         <v>9</v>
       </c>
@@ -11878,8 +11902,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="140"/>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
       </c>
@@ -11965,8 +11989,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
       </c>
@@ -11999,8 +12023,8 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="141"/>
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
       </c>
@@ -12033,8 +12057,8 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="139">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52" s="140">
         <v>5</v>
       </c>
       <c r="B52" s="87">
@@ -12125,8 +12149,8 @@
         <v>0.46155600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="140"/>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B57" si="86">B52+1</f>
         <v>2</v>
@@ -12241,8 +12265,8 @@
         <v>0.18462240000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="86"/>
         <v>3</v>
@@ -12357,8 +12381,8 @@
         <v>4.6155600000000005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="140"/>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="86"/>
         <v>4</v>
@@ -12473,8 +12497,8 @@
         <v>4.6155600000000005E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" s="140"/>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="86"/>
         <v>5</v>
@@ -12565,8 +12589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" s="140"/>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="86"/>
         <v>6</v>
@@ -12657,8 +12681,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58" s="141"/>
       <c r="B58" s="13">
         <v>7</v>
       </c>
@@ -12748,8 +12772,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="140"/>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A59" s="141"/>
       <c r="B59" s="13">
         <v>8</v>
       </c>
@@ -12835,8 +12859,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="140"/>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A60" s="141"/>
       <c r="B60" s="13">
         <v>9</v>
       </c>
@@ -12922,8 +12946,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="140"/>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
       </c>
@@ -13009,8 +13033,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="140"/>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
       </c>
@@ -13043,8 +13067,8 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="141"/>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
       </c>
@@ -13093,35 +13117,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE88"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64:AE88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="8" customWidth="1"/>
-    <col min="8" max="24" width="9.109375" style="8"/>
-    <col min="25" max="25" width="7.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="8" customWidth="1"/>
+    <col min="8" max="24" width="9.08984375" style="8"/>
+    <col min="25" max="25" width="7.90625" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
@@ -13198,12 +13222,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="133"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="53" t="s">
         <v>10</v>
       </c>
@@ -13280,7 +13304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
@@ -13324,8 +13348,8 @@
       <c r="AC3" s="55"/>
       <c r="AD3" s="56"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="139">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="140">
         <v>1</v>
       </c>
       <c r="B4" s="87">
@@ -13416,8 +13440,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B12" si="0">B4+1</f>
         <v>2</v>
@@ -13508,8 +13532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13600,8 +13624,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13692,8 +13716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13784,8 +13808,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13876,8 +13900,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13968,8 +13992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14060,8 +14084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14102,8 +14126,8 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -14139,8 +14163,8 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -14176,8 +14200,8 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
       </c>
@@ -14213,8 +14237,8 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="139">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="140">
         <v>2</v>
       </c>
       <c r="B16" s="87">
@@ -14305,8 +14329,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B24" si="2">B16+1</f>
         <v>2</v>
@@ -14397,8 +14421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -14489,8 +14513,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -14581,8 +14605,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -14673,8 +14697,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -14765,8 +14789,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -14857,8 +14881,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -14949,8 +14973,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -14991,8 +15015,8 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
       </c>
@@ -15028,8 +15052,8 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
       </c>
@@ -15065,8 +15089,8 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="141"/>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
       </c>
@@ -15102,8 +15126,8 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="139">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="140">
         <v>3</v>
       </c>
       <c r="B28" s="87">
@@ -15194,8 +15218,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B36" si="4">B28+1</f>
         <v>2</v>
@@ -15286,8 +15310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -15378,8 +15402,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -15470,8 +15494,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -15562,8 +15586,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -15654,8 +15678,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -15746,8 +15770,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -15838,8 +15862,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -15880,8 +15904,8 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
       </c>
@@ -15917,8 +15941,8 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
       </c>
@@ -15954,8 +15978,8 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="141"/>
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
       </c>
@@ -15991,8 +16015,8 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="139">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="140">
         <v>4</v>
       </c>
       <c r="B40" s="87">
@@ -16083,8 +16107,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B48" si="6">B40+1</f>
         <v>2</v>
@@ -16175,8 +16199,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -16267,8 +16291,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -16359,8 +16383,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -16451,8 +16475,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -16543,8 +16567,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -16635,8 +16659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -16727,8 +16751,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="140"/>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -16769,8 +16793,8 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A49" s="140"/>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
       </c>
@@ -16806,8 +16830,8 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
       </c>
@@ -16843,8 +16867,8 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="141"/>
+    <row r="51" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
       </c>
@@ -16880,8 +16904,8 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A52" s="139">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A52" s="140">
         <v>5</v>
       </c>
       <c r="B52" s="87">
@@ -16972,8 +16996,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A53" s="140"/>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B60" si="8">B52+1</f>
         <v>2</v>
@@ -17064,8 +17088,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -17156,8 +17180,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A55" s="140"/>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -17248,8 +17272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A56" s="140"/>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -17340,8 +17364,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A57" s="140"/>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -17432,8 +17456,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -17524,8 +17548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A59" s="140"/>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -17616,8 +17640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A60" s="140"/>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -17658,8 +17682,8 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A61" s="140"/>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
       </c>
@@ -17695,8 +17719,8 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A62" s="140"/>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
       </c>
@@ -17732,8 +17756,8 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="141"/>
+    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
       </c>
@@ -17769,7 +17793,7 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D64" s="61"/>
       <c r="E64" s="61"/>
       <c r="F64" s="61"/>
@@ -17799,7 +17823,7 @@
       <c r="AD64" s="61"/>
       <c r="AE64" s="61"/>
     </row>
-    <row r="65" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D65" s="61"/>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
@@ -17829,7 +17853,7 @@
       <c r="AD65" s="61"/>
       <c r="AE65" s="61"/>
     </row>
-    <row r="66" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D66" s="61"/>
       <c r="E66" s="61"/>
       <c r="F66" s="61"/>
@@ -17859,7 +17883,7 @@
       <c r="AD66" s="61"/>
       <c r="AE66" s="61"/>
     </row>
-    <row r="67" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
       <c r="F67" s="61"/>
@@ -17889,7 +17913,7 @@
       <c r="AD67" s="61"/>
       <c r="AE67" s="61"/>
     </row>
-    <row r="68" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
       <c r="F68" s="61"/>
@@ -17919,7 +17943,7 @@
       <c r="AD68" s="61"/>
       <c r="AE68" s="61"/>
     </row>
-    <row r="69" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
       <c r="F69" s="61"/>
@@ -17949,7 +17973,7 @@
       <c r="AD69" s="61"/>
       <c r="AE69" s="61"/>
     </row>
-    <row r="70" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D70" s="61"/>
       <c r="E70" s="61"/>
       <c r="F70" s="61"/>
@@ -17979,7 +18003,7 @@
       <c r="AD70" s="61"/>
       <c r="AE70" s="61"/>
     </row>
-    <row r="71" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D71" s="61"/>
       <c r="E71" s="61"/>
       <c r="F71" s="61"/>
@@ -18009,7 +18033,7 @@
       <c r="AD71" s="61"/>
       <c r="AE71" s="61"/>
     </row>
-    <row r="72" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D72" s="61"/>
       <c r="E72" s="61"/>
       <c r="F72" s="61"/>
@@ -18039,7 +18063,7 @@
       <c r="AD72" s="61"/>
       <c r="AE72" s="61"/>
     </row>
-    <row r="73" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D73" s="61"/>
       <c r="E73" s="61"/>
       <c r="F73" s="61"/>
@@ -18069,7 +18093,7 @@
       <c r="AD73" s="61"/>
       <c r="AE73" s="61"/>
     </row>
-    <row r="74" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D74" s="61"/>
       <c r="E74" s="61"/>
       <c r="F74" s="61"/>
@@ -18099,7 +18123,7 @@
       <c r="AD74" s="61"/>
       <c r="AE74" s="61"/>
     </row>
-    <row r="75" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D75" s="61"/>
       <c r="E75" s="61"/>
       <c r="F75" s="61"/>
@@ -18129,7 +18153,7 @@
       <c r="AD75" s="61"/>
       <c r="AE75" s="61"/>
     </row>
-    <row r="76" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D76" s="61"/>
       <c r="E76" s="61"/>
       <c r="F76" s="61"/>
@@ -18159,7 +18183,7 @@
       <c r="AD76" s="61"/>
       <c r="AE76" s="61"/>
     </row>
-    <row r="77" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D77" s="61"/>
       <c r="E77" s="61"/>
       <c r="F77" s="61"/>
@@ -18189,7 +18213,7 @@
       <c r="AD77" s="61"/>
       <c r="AE77" s="61"/>
     </row>
-    <row r="78" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D78" s="61"/>
       <c r="E78" s="61"/>
       <c r="F78" s="61"/>
@@ -18219,7 +18243,7 @@
       <c r="AD78" s="61"/>
       <c r="AE78" s="61"/>
     </row>
-    <row r="79" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D79" s="61"/>
       <c r="E79" s="61"/>
       <c r="F79" s="61"/>
@@ -18249,7 +18273,7 @@
       <c r="AD79" s="61"/>
       <c r="AE79" s="61"/>
     </row>
-    <row r="80" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D80" s="61"/>
       <c r="E80" s="61"/>
       <c r="F80" s="61"/>
@@ -18279,7 +18303,7 @@
       <c r="AD80" s="61"/>
       <c r="AE80" s="61"/>
     </row>
-    <row r="81" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D81" s="61"/>
       <c r="E81" s="61"/>
       <c r="F81" s="61"/>
@@ -18309,7 +18333,7 @@
       <c r="AD81" s="61"/>
       <c r="AE81" s="61"/>
     </row>
-    <row r="82" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D82" s="61"/>
       <c r="E82" s="61"/>
       <c r="F82" s="61"/>
@@ -18339,7 +18363,7 @@
       <c r="AD82" s="61"/>
       <c r="AE82" s="61"/>
     </row>
-    <row r="83" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D83" s="61"/>
       <c r="E83" s="61"/>
       <c r="F83" s="61"/>
@@ -18369,7 +18393,7 @@
       <c r="AD83" s="61"/>
       <c r="AE83" s="61"/>
     </row>
-    <row r="84" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D84" s="61"/>
       <c r="E84" s="61"/>
       <c r="F84" s="61"/>
@@ -18399,7 +18423,7 @@
       <c r="AD84" s="61"/>
       <c r="AE84" s="61"/>
     </row>
-    <row r="85" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D85" s="61"/>
       <c r="E85" s="61"/>
       <c r="F85" s="61"/>
@@ -18429,7 +18453,7 @@
       <c r="AD85" s="61"/>
       <c r="AE85" s="61"/>
     </row>
-    <row r="86" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D86" s="61"/>
       <c r="E86" s="61"/>
       <c r="F86" s="61"/>
@@ -18459,7 +18483,7 @@
       <c r="AD86" s="61"/>
       <c r="AE86" s="61"/>
     </row>
-    <row r="87" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D87" s="61"/>
       <c r="E87" s="61"/>
       <c r="F87" s="61"/>
@@ -18489,33 +18513,6 @@
       <c r="AD87" s="61"/>
       <c r="AE87" s="61"/>
     </row>
-    <row r="88" spans="4:31" x14ac:dyDescent="0.3">
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="61"/>
-      <c r="O88" s="61"/>
-      <c r="P88" s="61"/>
-      <c r="Q88" s="61"/>
-      <c r="R88" s="61"/>
-      <c r="S88" s="61"/>
-      <c r="T88" s="61"/>
-      <c r="U88" s="61"/>
-      <c r="V88" s="61"/>
-      <c r="W88" s="61"/>
-      <c r="X88" s="61"/>
-      <c r="Y88" s="61"/>
-      <c r="Z88" s="61"/>
-      <c r="AA88" s="61"/>
-      <c r="AB88" s="61"/>
-      <c r="AC88" s="61"/>
-      <c r="AD88" s="61"/>
-      <c r="AE88" s="61"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A52:A63"/>
@@ -18532,37 +18529,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7C5C45-3065-4A67-8E3E-9C95ED177581}">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="68" customWidth="1"/>
-    <col min="8" max="17" width="9.109375" style="68"/>
-    <col min="18" max="18" width="9.109375" style="68" customWidth="1"/>
-    <col min="19" max="21" width="9.109375" style="68"/>
-    <col min="22" max="30" width="9.109375" style="68" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="13.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="68" customWidth="1"/>
+    <col min="8" max="17" width="9.08984375" style="68"/>
+    <col min="18" max="18" width="9.08984375" style="68" customWidth="1"/>
+    <col min="19" max="21" width="9.08984375" style="68"/>
+    <col min="22" max="30" width="9.08984375" style="68" customWidth="1"/>
+    <col min="31" max="16384" width="9.08984375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="62" t="s">
         <v>9</v>
       </c>
@@ -18639,12 +18636,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
@@ -18721,7 +18718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -18765,8 +18762,8 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="139">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="140">
         <v>1</v>
       </c>
       <c r="B4" s="87">
@@ -18857,8 +18854,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f>B4+1</f>
         <v>2</v>
@@ -18949,8 +18946,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" ref="B6:B15" si="0">B5+1</f>
         <v>3</v>
@@ -19041,8 +19038,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19133,8 +19130,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19172,8 +19169,8 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19211,8 +19208,8 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19250,8 +19247,8 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19289,8 +19286,8 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19328,8 +19325,8 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="141"/>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19367,8 +19364,8 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="141"/>
       <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19406,8 +19403,8 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="140"/>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="141"/>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19445,8 +19442,8 @@
       <c r="AC15"/>
       <c r="AD15" s="21"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="140"/>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="141"/>
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -19479,8 +19476,8 @@
       <c r="AC16"/>
       <c r="AD16" s="21"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -19513,8 +19510,8 @@
       <c r="AC17"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="141"/>
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="142"/>
       <c r="B18" s="88">
         <v>15</v>
       </c>
@@ -19547,8 +19544,8 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="22"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="139">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="140">
         <v>2</v>
       </c>
       <c r="B19" s="87">
@@ -19635,12 +19632,12 @@
       <c r="AC19" s="10">
         <v>5</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f>B19+1</f>
         <v>2</v>
@@ -19727,12 +19724,12 @@
       <c r="AC20">
         <v>5</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" ref="B21:B30" si="2">B20+1</f>
         <v>3</v>
@@ -19823,8 +19820,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -19915,8 +19912,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -19954,8 +19951,8 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -19964,7 +19961,7 @@
         <v>111</v>
       </c>
       <c r="D24" s="51">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24"/>
@@ -19993,8 +19990,8 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
       <c r="B25" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -20032,8 +20029,8 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="141"/>
       <c r="B26" s="13">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -20071,8 +20068,8 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="140"/>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" s="141"/>
       <c r="B27" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -20110,8 +20107,8 @@
       <c r="AC27"/>
       <c r="AD27" s="21"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="140"/>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="141"/>
       <c r="B28" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -20149,8 +20146,8 @@
       <c r="AC28"/>
       <c r="AD28" s="21"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -20159,7 +20156,7 @@
         <v>116</v>
       </c>
       <c r="D29" s="51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29"/>
@@ -20188,8 +20185,8 @@
       <c r="AC29"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -20198,7 +20195,7 @@
         <v>117</v>
       </c>
       <c r="D30" s="51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30"/>
@@ -20227,8 +20224,8 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="141"/>
       <c r="B31" s="13">
         <v>13</v>
       </c>
@@ -20261,8 +20258,8 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
       <c r="B32" s="13">
         <v>14</v>
       </c>
@@ -20295,8 +20292,8 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="141"/>
+    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="142"/>
       <c r="B33" s="88">
         <v>15</v>
       </c>
@@ -20329,8 +20326,8 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="22"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="139">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="140">
         <v>3</v>
       </c>
       <c r="B34" s="87">
@@ -20349,80 +20346,80 @@
         <v>105</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="U34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="X34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Y34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Z34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AA34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AB34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AC34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AD34" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f>B34+1</f>
         <v>2</v>
@@ -20441,80 +20438,80 @@
         <v>108</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="X35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Y35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Z35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AB35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AC35">
-        <v>4</v>
-      </c>
-      <c r="AD35" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
+        <v>20</v>
+      </c>
+      <c r="AD35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" ref="B36:B45" si="4">B35+1</f>
         <v>3</v>
@@ -20605,8 +20602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="141"/>
       <c r="B37" s="13">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -20697,8 +20694,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="141"/>
       <c r="B38" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -20736,8 +20733,8 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="140"/>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A39" s="141"/>
       <c r="B39" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -20746,7 +20743,7 @@
         <v>111</v>
       </c>
       <c r="D39" s="51">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39"/>
@@ -20775,8 +20772,8 @@
       <c r="AC39"/>
       <c r="AD39" s="21"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="140"/>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="141"/>
       <c r="B40" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -20814,8 +20811,8 @@
       <c r="AC40"/>
       <c r="AD40" s="21"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -20853,8 +20850,8 @@
       <c r="AC41"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -20892,8 +20889,8 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -20931,8 +20928,8 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -20941,7 +20938,7 @@
         <v>116</v>
       </c>
       <c r="D44" s="51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44"/>
@@ -20970,8 +20967,8 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -20980,7 +20977,7 @@
         <v>117</v>
       </c>
       <c r="D45" s="51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45"/>
@@ -21009,8 +21006,8 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46" s="141"/>
       <c r="B46" s="13">
         <v>13</v>
       </c>
@@ -21043,8 +21040,8 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" s="141"/>
       <c r="B47" s="13">
         <v>14</v>
       </c>
@@ -21077,8 +21074,8 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="141"/>
+    <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="142"/>
       <c r="B48" s="88">
         <v>15</v>
       </c>
@@ -21111,9 +21108,9 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="22"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="139">
-        <v>5</v>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49" s="140">
+        <v>4</v>
       </c>
       <c r="B49" s="87">
         <v>1</v>
@@ -21203,8 +21200,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50" s="141"/>
       <c r="B50" s="13">
         <f>B49+1</f>
         <v>2</v>
@@ -21295,8 +21292,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A51" s="140"/>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A51" s="141"/>
       <c r="B51" s="13">
         <f t="shared" ref="B51:B60" si="6">B50+1</f>
         <v>3</v>
@@ -21387,8 +21384,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="140"/>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52" s="141"/>
       <c r="B52" s="13">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -21479,8 +21476,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="140"/>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -21518,8 +21515,8 @@
       <c r="AC53"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -21557,8 +21554,8 @@
       <c r="AC54"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="140"/>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -21596,8 +21593,8 @@
       <c r="AC55"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" s="140"/>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -21635,8 +21632,8 @@
       <c r="AC56"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" s="140"/>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -21674,8 +21671,8 @@
       <c r="AC57"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -21713,8 +21710,8 @@
       <c r="AC58"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="140"/>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -21752,8 +21749,8 @@
       <c r="AC59"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="140"/>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -21791,8 +21788,8 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="140"/>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>13</v>
       </c>
@@ -21825,8 +21822,8 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="140"/>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>14</v>
       </c>
@@ -21859,8 +21856,8 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="141"/>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>15</v>
       </c>
@@ -21893,8 +21890,791 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A64" s="140">
+        <v>5</v>
+      </c>
+      <c r="B64" s="87">
+        <v>1</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="50">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>4</v>
+      </c>
+      <c r="U64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
+      </c>
+      <c r="W64">
+        <v>4</v>
+      </c>
+      <c r="X64">
+        <v>4</v>
+      </c>
+      <c r="Y64">
+        <v>4</v>
+      </c>
+      <c r="Z64">
+        <v>4</v>
+      </c>
+      <c r="AA64">
+        <v>4</v>
+      </c>
+      <c r="AB64">
+        <v>4</v>
+      </c>
+      <c r="AC64">
+        <v>4</v>
+      </c>
+      <c r="AD64" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A65" s="141"/>
+      <c r="B65" s="13">
+        <f>B64+1</f>
+        <v>2</v>
+      </c>
+      <c r="C65" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="13">
+        <f>E64+1</f>
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="V65">
+        <v>4</v>
+      </c>
+      <c r="W65">
+        <v>4</v>
+      </c>
+      <c r="X65">
+        <v>4</v>
+      </c>
+      <c r="Y65">
+        <v>4</v>
+      </c>
+      <c r="Z65">
+        <v>4</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>4</v>
+      </c>
+      <c r="AC65">
+        <v>4</v>
+      </c>
+      <c r="AD65" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A66" s="141"/>
+      <c r="B66" s="13">
+        <f t="shared" ref="B66:B75" si="8">B65+1</f>
+        <v>3</v>
+      </c>
+      <c r="C66" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="51">
+        <v>2</v>
+      </c>
+      <c r="E66" s="13">
+        <f t="shared" ref="E66:E67" si="9">E65+1</f>
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A67" s="141"/>
+      <c r="B67" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C67" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="51">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67">
+        <v>0.04</v>
+      </c>
+      <c r="H67">
+        <v>0.04</v>
+      </c>
+      <c r="I67">
+        <v>0.04</v>
+      </c>
+      <c r="J67">
+        <v>0.04</v>
+      </c>
+      <c r="K67">
+        <v>0.04</v>
+      </c>
+      <c r="L67">
+        <v>0.04</v>
+      </c>
+      <c r="M67">
+        <v>0.04</v>
+      </c>
+      <c r="N67">
+        <v>0.04</v>
+      </c>
+      <c r="O67">
+        <v>0.04</v>
+      </c>
+      <c r="P67">
+        <v>0.04</v>
+      </c>
+      <c r="Q67">
+        <v>0.04</v>
+      </c>
+      <c r="R67">
+        <v>0.04</v>
+      </c>
+      <c r="S67">
+        <v>0.04</v>
+      </c>
+      <c r="T67">
+        <v>0.04</v>
+      </c>
+      <c r="U67">
+        <v>0.04</v>
+      </c>
+      <c r="V67">
+        <v>0.04</v>
+      </c>
+      <c r="W67">
+        <v>0.04</v>
+      </c>
+      <c r="X67">
+        <v>0.04</v>
+      </c>
+      <c r="Y67">
+        <v>0.04</v>
+      </c>
+      <c r="Z67">
+        <v>0.04</v>
+      </c>
+      <c r="AA67">
+        <v>0.04</v>
+      </c>
+      <c r="AB67">
+        <v>0.04</v>
+      </c>
+      <c r="AC67">
+        <v>0.04</v>
+      </c>
+      <c r="AD67" s="21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A68" s="141"/>
+      <c r="B68" s="13">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="51">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68" s="21"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A69" s="141"/>
+      <c r="B69" s="13">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C69" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="51">
+        <v>15</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69" s="21"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A70" s="141"/>
+      <c r="B70" s="13">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C70" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="51">
+        <v>20</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70" s="21"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A71" s="141"/>
+      <c r="B71" s="13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C71" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="51">
+        <v>95</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71" s="21"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A72" s="141"/>
+      <c r="B72" s="13">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C72" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="51">
+        <v>95</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72" s="21"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A73" s="141"/>
+      <c r="B73" s="13">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C73" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="51">
+        <v>80</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73" s="21"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A74" s="141"/>
+      <c r="B74" s="13">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="C74" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="51">
+        <v>10</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74" s="21"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A75" s="141"/>
+      <c r="B75" s="13">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="C75" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="51">
+        <v>10</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75" s="21"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A76" s="141"/>
+      <c r="B76" s="13">
+        <v>13</v>
+      </c>
+      <c r="C76" s="96"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="13"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76" s="21"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A77" s="141"/>
+      <c r="B77" s="13">
+        <v>14</v>
+      </c>
+      <c r="C77" s="96"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="66"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77" s="21"/>
+    </row>
+    <row r="78" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="142"/>
+      <c r="B78" s="88">
+        <v>15</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11"/>
+      <c r="AD78" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A64:A78"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="A19:A33"/>
@@ -21908,32 +22688,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98EFC89-2E31-4A70-A48F-E4D762144DE5}">
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="C87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="13.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
       <c r="H1" s="62"/>
@@ -21960,12 +22740,12 @@
       <c r="AC1" s="62"/>
       <c r="AD1" s="62"/>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="62" t="s">
         <v>119</v>
       </c>
@@ -21998,7 +22778,7 @@
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -22042,8 +22822,8 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="64"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="139">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="140">
         <v>1</v>
       </c>
       <c r="B4" s="87">
@@ -22090,8 +22870,8 @@
       <c r="AC4"/>
       <c r="AD4" s="20"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B12" si="0">B4+1</f>
         <v>2</v>
@@ -22138,8 +22918,8 @@
       <c r="AC5"/>
       <c r="AD5" s="21"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -22186,8 +22966,8 @@
       <c r="AC6"/>
       <c r="AD6" s="21"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -22234,8 +23014,8 @@
       <c r="AC7"/>
       <c r="AD7" s="21"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -22281,8 +23061,8 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -22291,7 +23071,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="51">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13">
         <v>6</v>
@@ -22328,8 +23108,8 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -22338,7 +23118,7 @@
         <v>117</v>
       </c>
       <c r="D10" s="51">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="E10" s="13">
         <v>7</v>
@@ -22375,8 +23155,8 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -22422,8 +23202,8 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -22469,8 +23249,8 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -22515,8 +23295,8 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -22553,13 +23333,17 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>139</v>
+      </c>
       <c r="E15" s="67"/>
       <c r="F15" s="22"/>
       <c r="G15" s="11"/>
@@ -22587,8 +23371,8 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="139">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="140">
         <v>2</v>
       </c>
       <c r="B16" s="87">
@@ -22635,8 +23419,8 @@
       <c r="AC16"/>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B24" si="1">B16+1</f>
         <v>2</v>
@@ -22683,8 +23467,8 @@
       <c r="AC17"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -22703,10 +23487,10 @@
         <v>126</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -22731,8 +23515,8 @@
       <c r="AC18"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -22779,8 +23563,8 @@
       <c r="AC19"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -22826,8 +23610,8 @@
       <c r="AC20"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -22873,8 +23657,8 @@
       <c r="AC21"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -22883,7 +23667,7 @@
         <v>117</v>
       </c>
       <c r="D22" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22" s="13">
         <v>7</v>
@@ -22920,8 +23704,8 @@
       <c r="AC22"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -22967,8 +23751,8 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -22977,7 +23761,7 @@
         <v>114</v>
       </c>
       <c r="D24" s="51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E24" s="13">
         <v>9</v>
@@ -23014,8 +23798,8 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
       </c>
@@ -23060,8 +23844,8 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
       </c>
@@ -23098,13 +23882,17 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="141"/>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="52"/>
+      <c r="C27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>140</v>
+      </c>
       <c r="E27" s="67"/>
       <c r="F27" s="22"/>
       <c r="G27" s="11"/>
@@ -23132,8 +23920,8 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="139">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="140">
         <v>3</v>
       </c>
       <c r="B28" s="87">
@@ -23180,8 +23968,8 @@
       <c r="AC28"/>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B36" si="2">B28+1</f>
         <v>2</v>
@@ -23228,8 +24016,8 @@
       <c r="AC29"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -23248,10 +24036,10 @@
         <v>126</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -23276,8 +24064,8 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -23324,8 +24112,8 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -23371,8 +24159,8 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -23418,8 +24206,8 @@
       <c r="AC33"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -23428,7 +24216,7 @@
         <v>117</v>
       </c>
       <c r="D34" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E34" s="13">
         <v>7</v>
@@ -23465,8 +24253,8 @@
       <c r="AC34"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -23512,8 +24300,8 @@
       <c r="AC35"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -23522,7 +24310,7 @@
         <v>114</v>
       </c>
       <c r="D36" s="51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E36" s="13">
         <v>9</v>
@@ -23559,8 +24347,8 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
       </c>
@@ -23605,8 +24393,8 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
       </c>
@@ -23643,13 +24431,17 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="141"/>
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="52"/>
+      <c r="C39" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>140</v>
+      </c>
       <c r="E39" s="67"/>
       <c r="F39" s="22"/>
       <c r="G39" s="11"/>
@@ -23677,8 +24469,8 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="139">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="140">
         <v>4</v>
       </c>
       <c r="B40" s="87">
@@ -23725,8 +24517,8 @@
       <c r="AC40"/>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B48" si="3">B40+1</f>
         <v>2</v>
@@ -23773,8 +24565,8 @@
       <c r="AC41"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -23793,10 +24585,10 @@
         <v>126</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -23821,8 +24613,8 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -23869,8 +24661,8 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -23916,8 +24708,8 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -23963,8 +24755,8 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -23973,7 +24765,7 @@
         <v>117</v>
       </c>
       <c r="D46" s="51">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E46" s="13">
         <v>7</v>
@@ -24010,8 +24802,8 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -24057,8 +24849,8 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="140"/>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -24067,7 +24859,7 @@
         <v>114</v>
       </c>
       <c r="D48" s="51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E48" s="13">
         <v>9</v>
@@ -24104,8 +24896,8 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="140"/>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
       </c>
@@ -24150,8 +24942,8 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
       </c>
@@ -24188,13 +24980,17 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="141"/>
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="52"/>
+      <c r="C51" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="118" t="s">
+        <v>141</v>
+      </c>
       <c r="E51" s="67"/>
       <c r="F51" s="22"/>
       <c r="G51" s="11"/>
@@ -24222,8 +25018,8 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A52" s="139">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52" s="140">
         <v>5</v>
       </c>
       <c r="B52" s="87">
@@ -24270,8 +25066,8 @@
       <c r="AC52"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A53" s="140"/>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B60" si="4">B52+1</f>
         <v>2</v>
@@ -24318,8 +25114,8 @@
       <c r="AC53"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -24341,7 +25137,7 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -24366,8 +25162,8 @@
       <c r="AC54"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A55" s="140"/>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -24414,8 +25210,8 @@
       <c r="AC55"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A56" s="140"/>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -24461,8 +25257,8 @@
       <c r="AC56"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A57" s="140"/>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -24508,8 +25304,8 @@
       <c r="AC57"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -24518,7 +25314,7 @@
         <v>117</v>
       </c>
       <c r="D58" s="51">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E58" s="13">
         <v>7</v>
@@ -24555,8 +25351,8 @@
       <c r="AC58"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A59" s="140"/>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -24602,8 +25398,8 @@
       <c r="AC59"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A60" s="140"/>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -24612,7 +25408,7 @@
         <v>114</v>
       </c>
       <c r="D60" s="51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E60" s="13">
         <v>9</v>
@@ -24649,8 +25445,8 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A61" s="140"/>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
       </c>
@@ -24695,8 +25491,8 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A62" s="140"/>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
       </c>
@@ -24733,13 +25529,17 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="141"/>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="52"/>
+      <c r="C63" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="118" t="s">
+        <v>139</v>
+      </c>
       <c r="E63" s="67"/>
       <c r="F63" s="22"/>
       <c r="G63" s="11"/>
@@ -24767,8 +25567,8 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A64" s="139">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A64" s="140">
         <v>6</v>
       </c>
       <c r="B64" s="87">
@@ -24815,8 +25615,8 @@
       <c r="AC64"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A65" s="140"/>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A65" s="141"/>
       <c r="B65" s="13">
         <f t="shared" ref="B65:B72" si="5">B64+1</f>
         <v>2</v>
@@ -24863,8 +25663,8 @@
       <c r="AC65"/>
       <c r="AD65" s="21"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A66" s="140"/>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A66" s="141"/>
       <c r="B66" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -24883,10 +25683,10 @@
         <v>126</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
@@ -24911,8 +25711,8 @@
       <c r="AC66"/>
       <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A67" s="140"/>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A67" s="141"/>
       <c r="B67" s="13">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -24959,8 +25759,8 @@
       <c r="AC67"/>
       <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A68" s="140"/>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A68" s="141"/>
       <c r="B68" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -25006,8 +25806,8 @@
       <c r="AC68"/>
       <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A69" s="140"/>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A69" s="141"/>
       <c r="B69" s="13">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -25016,7 +25816,7 @@
         <v>116</v>
       </c>
       <c r="D69" s="51">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="E69" s="13">
         <v>6</v>
@@ -25053,8 +25853,8 @@
       <c r="AC69"/>
       <c r="AD69" s="21"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A70" s="140"/>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A70" s="141"/>
       <c r="B70" s="13">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -25063,7 +25863,7 @@
         <v>117</v>
       </c>
       <c r="D70" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E70" s="13">
         <v>7</v>
@@ -25100,8 +25900,8 @@
       <c r="AC70"/>
       <c r="AD70" s="21"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A71" s="140"/>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A71" s="141"/>
       <c r="B71" s="13">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -25147,8 +25947,8 @@
       <c r="AC71"/>
       <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A72" s="140"/>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A72" s="141"/>
       <c r="B72" s="13">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -25194,8 +25994,8 @@
       <c r="AC72"/>
       <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A73" s="140"/>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A73" s="141"/>
       <c r="B73" s="13">
         <v>10</v>
       </c>
@@ -25240,8 +26040,8 @@
       <c r="AC73"/>
       <c r="AD73" s="21"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74" s="140"/>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A74" s="141"/>
       <c r="B74" s="13">
         <v>11</v>
       </c>
@@ -25278,13 +26078,17 @@
       <c r="AC74"/>
       <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="141"/>
+    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="142"/>
       <c r="B75" s="88">
         <v>12</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="52"/>
+      <c r="C75" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="118" t="s">
+        <v>139</v>
+      </c>
       <c r="E75" s="67"/>
       <c r="F75" s="22"/>
       <c r="G75" s="11"/>
@@ -25312,8 +26116,8 @@
       <c r="AC75" s="11"/>
       <c r="AD75" s="22"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A76" s="139">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A76" s="140">
         <v>7</v>
       </c>
       <c r="B76" s="87">
@@ -25360,8 +26164,8 @@
       <c r="AC76"/>
       <c r="AD76" s="20"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A77" s="140"/>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A77" s="141"/>
       <c r="B77" s="13">
         <f t="shared" ref="B77:B84" si="6">B76+1</f>
         <v>2</v>
@@ -25408,8 +26212,8 @@
       <c r="AC77"/>
       <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A78" s="140"/>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A78" s="141"/>
       <c r="B78" s="13">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -25428,7 +26232,7 @@
         <v>126</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -25456,8 +26260,8 @@
       <c r="AC78"/>
       <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A79" s="140"/>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A79" s="141"/>
       <c r="B79" s="13">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -25504,8 +26308,8 @@
       <c r="AC79"/>
       <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A80" s="140"/>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A80" s="141"/>
       <c r="B80" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -25551,8 +26355,8 @@
       <c r="AC80"/>
       <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A81" s="140"/>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A81" s="141"/>
       <c r="B81" s="13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -25561,7 +26365,7 @@
         <v>116</v>
       </c>
       <c r="D81" s="51">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="E81" s="13">
         <v>6</v>
@@ -25598,8 +26402,8 @@
       <c r="AC81"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A82" s="140"/>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A82" s="141"/>
       <c r="B82" s="13">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -25645,8 +26449,8 @@
       <c r="AC82"/>
       <c r="AD82" s="21"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A83" s="140"/>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A83" s="141"/>
       <c r="B83" s="13">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -25692,8 +26496,8 @@
       <c r="AC83"/>
       <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A84" s="140"/>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A84" s="141"/>
       <c r="B84" s="13">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -25739,8 +26543,8 @@
       <c r="AC84"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A85" s="140"/>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A85" s="141"/>
       <c r="B85" s="13">
         <v>10</v>
       </c>
@@ -25785,8 +26589,8 @@
       <c r="AC85"/>
       <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A86" s="140"/>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A86" s="141"/>
       <c r="B86" s="13">
         <v>11</v>
       </c>
@@ -25823,13 +26627,17 @@
       <c r="AC86"/>
       <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="141"/>
+    <row r="87" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="142"/>
       <c r="B87" s="88">
         <v>12</v>
       </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="52"/>
+      <c r="C87" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="E87" s="67"/>
       <c r="F87" s="22"/>
       <c r="G87" s="11"/>
@@ -25857,11 +26665,1661 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="22"/>
     </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A88" s="140">
+        <v>8</v>
+      </c>
+      <c r="B88" s="87">
+        <v>1</v>
+      </c>
+      <c r="C88" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <v>19</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88" s="20"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A89" s="141"/>
+      <c r="B89" s="13">
+        <f t="shared" ref="B89:B96" si="7">B88+1</f>
+        <v>2</v>
+      </c>
+      <c r="C89" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="51">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13">
+        <f>E88+1</f>
+        <v>2</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="H89">
+        <v>22</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89" s="21"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A90" s="141"/>
+      <c r="B90" s="13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C90" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="51">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13">
+        <f>E89+1</f>
+        <v>3</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90" s="21"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A91" s="141"/>
+      <c r="B91" s="13">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C91" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="51">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13">
+        <f>E90+1</f>
+        <v>4</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" t="s">
+        <v>128</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91" s="21"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A92" s="141"/>
+      <c r="B92" s="13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C92" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="51">
+        <v>18.8</v>
+      </c>
+      <c r="E92" s="13">
+        <v>5</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92">
+        <v>40</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92" s="21"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A93" s="141"/>
+      <c r="B93" s="13">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C93" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="51">
+        <v>11</v>
+      </c>
+      <c r="E93" s="13">
+        <v>6</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93">
+        <v>50</v>
+      </c>
+      <c r="H93">
+        <v>45</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93" s="21"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A94" s="141"/>
+      <c r="B94" s="13">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C94" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="51">
+        <v>0</v>
+      </c>
+      <c r="E94" s="13">
+        <v>7</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G94" t="s">
+        <v>128</v>
+      </c>
+      <c r="H94" t="s">
+        <v>128</v>
+      </c>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94" s="21"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A95" s="141"/>
+      <c r="B95" s="13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C95" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="51">
+        <v>0.98</v>
+      </c>
+      <c r="E95" s="13">
+        <v>8</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H95" t="s">
+        <v>128</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95" s="21"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A96" s="141"/>
+      <c r="B96" s="13">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C96" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="51">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13">
+        <v>9</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96" s="21"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A97" s="141"/>
+      <c r="B97" s="13">
+        <v>10</v>
+      </c>
+      <c r="C97" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="13">
+        <v>10</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G97">
+        <v>0.06</v>
+      </c>
+      <c r="H97">
+        <v>0.06</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97" s="21"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A98" s="141"/>
+      <c r="B98" s="13">
+        <v>11</v>
+      </c>
+      <c r="C98" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="51">
+        <v>20</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="F98" s="21"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98" s="21"/>
+    </row>
+    <row r="99" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="142"/>
+      <c r="B99" s="88">
+        <v>12</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="67"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
+      <c r="Z99" s="11"/>
+      <c r="AA99" s="11"/>
+      <c r="AB99" s="11"/>
+      <c r="AC99" s="11"/>
+      <c r="AD99" s="22"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A100" s="140">
+        <v>9</v>
+      </c>
+      <c r="B100" s="87">
+        <v>1</v>
+      </c>
+      <c r="C100" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="13">
+        <v>1</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100">
+        <v>9</v>
+      </c>
+      <c r="H100">
+        <v>19</v>
+      </c>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100" s="20"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A101" s="141"/>
+      <c r="B101" s="13">
+        <f t="shared" ref="B101:B108" si="8">B100+1</f>
+        <v>2</v>
+      </c>
+      <c r="C101" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="51">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13">
+        <f>E100+1</f>
+        <v>2</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G101">
+        <v>11</v>
+      </c>
+      <c r="H101">
+        <v>22</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101" s="21"/>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A102" s="141"/>
+      <c r="B102" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C102" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="51">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13">
+        <f>E101+1</f>
+        <v>3</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102" s="21"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A103" s="141"/>
+      <c r="B103" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C103" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="51">
+        <v>1</v>
+      </c>
+      <c r="E103" s="13">
+        <f>E102+1</f>
+        <v>4</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
+      <c r="H103" t="s">
+        <v>128</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103" s="21"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A104" s="141"/>
+      <c r="B104" s="13">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C104" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="51">
+        <v>18.8</v>
+      </c>
+      <c r="E104" s="13">
+        <v>5</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>30</v>
+      </c>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104" s="21"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A105" s="141"/>
+      <c r="B105" s="13">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C105" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="51">
+        <v>7.4</v>
+      </c>
+      <c r="E105" s="13">
+        <v>6</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>45</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105" s="21"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A106" s="141"/>
+      <c r="B106" s="13">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C106" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="51">
+        <v>0</v>
+      </c>
+      <c r="E106" s="13">
+        <v>7</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>128</v>
+      </c>
+      <c r="H106" t="s">
+        <v>128</v>
+      </c>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106" s="21"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A107" s="141"/>
+      <c r="B107" s="13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C107" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="51">
+        <v>0.98</v>
+      </c>
+      <c r="E107" s="13">
+        <v>8</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G107" t="s">
+        <v>128</v>
+      </c>
+      <c r="H107" t="s">
+        <v>128</v>
+      </c>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107" s="21"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A108" s="141"/>
+      <c r="B108" s="13">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="51">
+        <v>1</v>
+      </c>
+      <c r="E108" s="13">
+        <v>9</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108" s="21"/>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A109" s="141"/>
+      <c r="B109" s="13">
+        <v>10</v>
+      </c>
+      <c r="C109" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="13">
+        <v>10</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G109">
+        <v>0.06</v>
+      </c>
+      <c r="H109">
+        <v>0.06</v>
+      </c>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109" s="21"/>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A110" s="141"/>
+      <c r="B110" s="13">
+        <v>11</v>
+      </c>
+      <c r="C110" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="51">
+        <v>20</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="21"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110" s="21"/>
+    </row>
+    <row r="111" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="142"/>
+      <c r="B111" s="88">
+        <v>12</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="67"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
+      <c r="U111" s="11"/>
+      <c r="V111" s="11"/>
+      <c r="W111" s="11"/>
+      <c r="X111" s="11"/>
+      <c r="Y111" s="11"/>
+      <c r="Z111" s="11"/>
+      <c r="AA111" s="11"/>
+      <c r="AB111" s="11"/>
+      <c r="AC111" s="11"/>
+      <c r="AD111" s="22"/>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A112" s="140">
+        <v>10</v>
+      </c>
+      <c r="B112" s="87">
+        <v>1</v>
+      </c>
+      <c r="C112" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" s="13">
+        <v>1</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G112">
+        <v>9</v>
+      </c>
+      <c r="H112">
+        <v>19</v>
+      </c>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112" s="20"/>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A113" s="141"/>
+      <c r="B113" s="13">
+        <f t="shared" ref="B113:B120" si="9">B112+1</f>
+        <v>2</v>
+      </c>
+      <c r="C113" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D113" s="51">
+        <v>1</v>
+      </c>
+      <c r="E113" s="13">
+        <f>E112+1</f>
+        <v>2</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+      <c r="H113">
+        <v>22</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113" s="21"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A114" s="141"/>
+      <c r="B114" s="13">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="C114" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="51">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13">
+        <f>E113+1</f>
+        <v>3</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114" s="21"/>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A115" s="141"/>
+      <c r="B115" s="13">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C115" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" s="51">
+        <v>1</v>
+      </c>
+      <c r="E115" s="13">
+        <f>E114+1</f>
+        <v>4</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" t="s">
+        <v>128</v>
+      </c>
+      <c r="H115" t="s">
+        <v>128</v>
+      </c>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115" s="21"/>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A116" s="141"/>
+      <c r="B116" s="13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="C116" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="51">
+        <v>18.8</v>
+      </c>
+      <c r="E116" s="13">
+        <v>5</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>30</v>
+      </c>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116" s="21"/>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A117" s="141"/>
+      <c r="B117" s="13">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="C117" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" s="51">
+        <v>11</v>
+      </c>
+      <c r="E117" s="13">
+        <v>6</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117">
+        <v>50</v>
+      </c>
+      <c r="H117">
+        <v>45</v>
+      </c>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117" s="21"/>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A118" s="141"/>
+      <c r="B118" s="13">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="C118" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="51">
+        <v>0</v>
+      </c>
+      <c r="E118" s="13">
+        <v>7</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G118" t="s">
+        <v>128</v>
+      </c>
+      <c r="H118" t="s">
+        <v>128</v>
+      </c>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118" s="21"/>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A119" s="141"/>
+      <c r="B119" s="13">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="C119" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="51">
+        <v>0.98</v>
+      </c>
+      <c r="E119" s="13">
+        <v>8</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G119" t="s">
+        <v>128</v>
+      </c>
+      <c r="H119" t="s">
+        <v>128</v>
+      </c>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119" s="21"/>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A120" s="141"/>
+      <c r="B120" s="13">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="C120" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" s="51">
+        <v>1</v>
+      </c>
+      <c r="E120" s="13">
+        <v>9</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120" s="21"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A121" s="141"/>
+      <c r="B121" s="13">
+        <v>10</v>
+      </c>
+      <c r="C121" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="13">
+        <v>10</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G121">
+        <v>0.06</v>
+      </c>
+      <c r="H121">
+        <v>0.06</v>
+      </c>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121" s="21"/>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A122" s="141"/>
+      <c r="B122" s="13">
+        <v>11</v>
+      </c>
+      <c r="C122" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="51">
+        <v>20</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="21"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
+      <c r="AD122" s="21"/>
+    </row>
+    <row r="123" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="142"/>
+      <c r="B123" s="88">
+        <v>12</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="67"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="11"/>
+      <c r="U123" s="11"/>
+      <c r="V123" s="11"/>
+      <c r="W123" s="11"/>
+      <c r="X123" s="11"/>
+      <c r="Y123" s="11"/>
+      <c r="Z123" s="11"/>
+      <c r="AA123" s="11"/>
+      <c r="AB123" s="11"/>
+      <c r="AC123" s="11"/>
+      <c r="AD123" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A100:A111"/>
+    <mergeCell ref="A112:A123"/>
     <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A88:A99"/>
+    <mergeCell ref="A52:A63"/>
     <mergeCell ref="A76:A87"/>
-    <mergeCell ref="A52:A63"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A16:A27"/>
@@ -25875,32 +28333,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED44E71-8461-49EC-BDE2-25D71C22BD0F}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A51"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="13.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="62" t="s">
         <v>9</v>
       </c>
@@ -25977,12 +28435,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
@@ -26059,7 +28517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -26103,8 +28561,8 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="139">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="140">
         <v>1</v>
       </c>
       <c r="B4" s="87">
@@ -26195,8 +28653,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B13" si="0">B4+1</f>
         <v>2</v>
@@ -26287,8 +28745,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26326,8 +28784,8 @@
       <c r="AC6"/>
       <c r="AD6" s="21"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26365,8 +28823,8 @@
       <c r="AC7"/>
       <c r="AD7" s="21"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26404,8 +28862,8 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26443,8 +28901,8 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="140"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26482,8 +28940,8 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -26521,8 +28979,8 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -26560,14 +29018,14 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="141"/>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D13" s="51">
         <v>1</v>
@@ -26599,13 +29057,13 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D14" s="51">
         <v>1</v>
@@ -26637,8 +29095,8 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
       </c>
@@ -26671,8 +29129,8 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="139">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="140">
         <v>4</v>
       </c>
       <c r="B16" s="87">
@@ -26763,8 +29221,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B25" si="1">B16+1</f>
         <v>2</v>
@@ -26855,8 +29313,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -26894,8 +29352,8 @@
       <c r="AC18"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -26933,8 +29391,8 @@
       <c r="AC19"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -26972,8 +29430,8 @@
       <c r="AC20"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -27011,8 +29469,8 @@
       <c r="AC21"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27050,8 +29508,8 @@
       <c r="AC22"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27089,8 +29547,8 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -27128,14 +29586,14 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="141"/>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D25" s="51">
         <v>2</v>
@@ -27167,13 +29625,13 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D26" s="51">
         <v>2</v>
@@ -27205,8 +29663,8 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="141"/>
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
       </c>
@@ -27239,8 +29697,8 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="139">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="140">
         <v>6</v>
       </c>
       <c r="B28" s="87">
@@ -27259,80 +29717,80 @@
         <v>105</v>
       </c>
       <c r="G28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="I28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="J28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="K28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="L28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="N28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="O28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="P28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Q28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="R28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="S28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="T28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="U28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="V28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="W28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="X28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Y28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Z28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AA28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AB28">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AC28">
-        <v>7.2</v>
-      </c>
-      <c r="AD28" s="21">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
+        <v>22</v>
+      </c>
+      <c r="AD28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B37" si="2">B28+1</f>
         <v>2</v>
@@ -27351,80 +29809,80 @@
         <v>108</v>
       </c>
       <c r="G29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="H29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="J29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="K29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="L29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="O29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="P29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Q29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="R29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="S29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="T29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="U29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="V29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="W29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="X29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Y29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Z29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AA29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AB29">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AC29">
-        <v>7.2</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
+        <v>22</v>
+      </c>
+      <c r="AD29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -27462,8 +29920,8 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -27501,8 +29959,8 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
+    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -27540,8 +29998,8 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -27579,8 +30037,8 @@
       <c r="AC33"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -27618,8 +30076,8 @@
       <c r="AC34"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -27657,8 +30115,8 @@
       <c r="AC35"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -27696,14 +30154,14 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="141"/>
       <c r="B37" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D37" s="51">
         <v>3</v>
@@ -27735,13 +30193,13 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D38" s="51">
         <v>3</v>
@@ -27773,8 +30231,8 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="141"/>
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
       </c>
@@ -27807,8 +30265,8 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A40" s="139">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="140">
         <v>7</v>
       </c>
       <c r="B40" s="87">
@@ -27899,8 +30357,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B49" si="3">B40+1</f>
         <v>2</v>
@@ -27991,8 +30449,8 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -28030,8 +30488,8 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -28069,8 +30527,8 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -28108,8 +30566,8 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -28118,7 +30576,7 @@
         <v>117</v>
       </c>
       <c r="D45" s="51">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45"/>
@@ -28147,8 +30605,8 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -28186,8 +30644,8 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -28196,7 +30654,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="51">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47"/>
@@ -28225,8 +30683,8 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A48" s="140"/>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -28264,14 +30722,14 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" s="140"/>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49" s="141"/>
       <c r="B49" s="13">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D49" s="51">
         <v>3</v>
@@ -28303,13 +30761,13 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
       </c>
       <c r="C50" s="96" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D50" s="51">
         <v>3</v>
@@ -28341,8 +30799,8 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="141"/>
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
       </c>
@@ -28375,8 +30833,577 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A52" s="140">
+        <v>9</v>
+      </c>
+      <c r="B52" s="87">
+        <v>1</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="50">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52">
+        <v>7.2</v>
+      </c>
+      <c r="H52">
+        <v>7.2</v>
+      </c>
+      <c r="I52">
+        <v>7.2</v>
+      </c>
+      <c r="J52">
+        <v>7.2</v>
+      </c>
+      <c r="K52">
+        <v>7.2</v>
+      </c>
+      <c r="L52">
+        <v>7.2</v>
+      </c>
+      <c r="M52">
+        <v>7.2</v>
+      </c>
+      <c r="N52">
+        <v>7.2</v>
+      </c>
+      <c r="O52">
+        <v>7.2</v>
+      </c>
+      <c r="P52">
+        <v>7.2</v>
+      </c>
+      <c r="Q52">
+        <v>7.2</v>
+      </c>
+      <c r="R52">
+        <v>7.2</v>
+      </c>
+      <c r="S52">
+        <v>7.2</v>
+      </c>
+      <c r="T52">
+        <v>7.2</v>
+      </c>
+      <c r="U52">
+        <v>7.2</v>
+      </c>
+      <c r="V52">
+        <v>7.2</v>
+      </c>
+      <c r="W52">
+        <v>7.2</v>
+      </c>
+      <c r="X52">
+        <v>7.2</v>
+      </c>
+      <c r="Y52">
+        <v>7.2</v>
+      </c>
+      <c r="Z52">
+        <v>7.2</v>
+      </c>
+      <c r="AA52">
+        <v>7.2</v>
+      </c>
+      <c r="AB52">
+        <v>7.2</v>
+      </c>
+      <c r="AC52">
+        <v>7.2</v>
+      </c>
+      <c r="AD52" s="21">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A53" s="141"/>
+      <c r="B53" s="13">
+        <f t="shared" ref="B53:B61" si="4">B52+1</f>
+        <v>2</v>
+      </c>
+      <c r="C53" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="51">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <f>E52+1</f>
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53">
+        <v>7.2</v>
+      </c>
+      <c r="H53">
+        <v>7.2</v>
+      </c>
+      <c r="I53">
+        <v>7.2</v>
+      </c>
+      <c r="J53">
+        <v>7.2</v>
+      </c>
+      <c r="K53">
+        <v>7.2</v>
+      </c>
+      <c r="L53">
+        <v>7.2</v>
+      </c>
+      <c r="M53">
+        <v>7.2</v>
+      </c>
+      <c r="N53">
+        <v>7.2</v>
+      </c>
+      <c r="O53">
+        <v>7.2</v>
+      </c>
+      <c r="P53">
+        <v>7.2</v>
+      </c>
+      <c r="Q53">
+        <v>7.2</v>
+      </c>
+      <c r="R53">
+        <v>7.2</v>
+      </c>
+      <c r="S53">
+        <v>7.2</v>
+      </c>
+      <c r="T53">
+        <v>7.2</v>
+      </c>
+      <c r="U53">
+        <v>7.2</v>
+      </c>
+      <c r="V53">
+        <v>7.2</v>
+      </c>
+      <c r="W53">
+        <v>7.2</v>
+      </c>
+      <c r="X53">
+        <v>7.2</v>
+      </c>
+      <c r="Y53">
+        <v>7.2</v>
+      </c>
+      <c r="Z53">
+        <v>7.2</v>
+      </c>
+      <c r="AA53">
+        <v>7.2</v>
+      </c>
+      <c r="AB53">
+        <v>7.2</v>
+      </c>
+      <c r="AC53">
+        <v>7.2</v>
+      </c>
+      <c r="AD53" s="21">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A54" s="141"/>
+      <c r="B54" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C54" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="51">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54" s="21"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A55" s="141"/>
+      <c r="B55" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="51">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55" s="21"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A56" s="141"/>
+      <c r="B56" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C56" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="51">
+        <v>7.2</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56" s="21"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A57" s="141"/>
+      <c r="B57" s="13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="51">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57" s="21"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58" s="141"/>
+      <c r="B58" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="51">
+        <v>95</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58" s="21"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A59" s="141"/>
+      <c r="B59" s="13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C59" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="51">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59" s="21"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A60" s="141"/>
+      <c r="B60" s="13">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C60" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="51">
+        <v>7.2</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60" s="21"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A61" s="141"/>
+      <c r="B61" s="13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C61" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="51">
+        <v>3</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61" s="21"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A62" s="141"/>
+      <c r="B62" s="13">
+        <v>11</v>
+      </c>
+      <c r="C62" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="51">
+        <v>3</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62" s="21"/>
+    </row>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="142"/>
+      <c r="B63" s="88">
+        <v>12</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A52:A63"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A16:A27"/>
@@ -28395,56 +31422,56 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="143" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="82">
         <v>1</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="143"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="144"/>
       <c r="C4" s="83">
         <v>2</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="144" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="145" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="82">
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="145"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="146"/>
       <c r="C6" s="83">
         <v>2</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -28458,6 +31485,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="837a5165-151f-4dc6-8559-37e708a28e7d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20c2104b-e2c4-498c-9051-7e14987438c5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -28466,16 +31504,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9AF0C12AF32784AA732DC10CF87510A" ma:contentTypeVersion="12" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="704088ab89168f16f5be5ae1239f37bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbae9298-c5c8-4c5d-86f9-781c8fd812a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa1512bd7375e312c8e45d43a3c9a072" ns2:_="">
-    <xsd:import namespace="cbae9298-c5c8-4c5d-86f9-781c8fd812a7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E337216F16624F4C93495A15D98BF483" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="77faa82a314d56595c04a308a2b6d944">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20c2104b-e2c4-498c-9051-7e14987438c5" xmlns:ns3="837a5165-151f-4dc6-8559-37e708a28e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd2a54d4065cc214eedf683bd0812350" ns2:_="" ns3:_="">
+    <xsd:import namespace="20c2104b-e2c4-498c-9051-7e14987438c5"/>
+    <xsd:import namespace="837a5165-151f-4dc6-8559-37e708a28e7d"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -28486,13 +31519,16 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -28500,7 +31536,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbae9298-c5c8-4c5d-86f9-781c8fd812a7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20c2104b-e2c4-498c-9051-7e14987438c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -28525,42 +31561,69 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de Imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="632f545a-f984-4dd3-ab31-738ecd40a744" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="837a5165-151f-4dc6-8559-37e708a28e7d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{12406878-88f3-4067-ba7f-9798e354b325}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="837a5165-151f-4dc6-8559-37e708a28e7d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -28663,6 +31726,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{190C380E-3337-4C81-80E6-9871B5E8C842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="837a5165-151f-4dc6-8559-37e708a28e7d"/>
+    <ds:schemaRef ds:uri="20c2104b-e2c4-498c-9051-7e14987438c5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C9FA379-60F3-40CB-BCC9-DB4DA962BF76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -28670,23 +31744,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{190C380E-3337-4C81-80E6-9871B5E8C842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CD6172-0F07-4FF1-9B13-D3C7D570AF8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8731F35-CBCD-4692-B9A6-872A6A5C2AF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cbae9298-c5c8-4c5d-86f9-781c8fd812a7"/>
+    <ds:schemaRef ds:uri="20c2104b-e2c4-498c-9051-7e14987438c5"/>
+    <ds:schemaRef ds:uri="837a5165-151f-4dc6-8559-37e708a28e7d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
